--- a/similarities/split_global/harmonic_similarity_timestamps_168.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_168.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,722 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:06.930000', '0:01:40.770000')]</t>
+          <t>('0:01:05.810340', '0:01:11.679931')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:59.320000', '0:02:02.940000')]</t>
+          <t>('0:00:00.243000', '0:00:09.120000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=66.93']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=119.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:00.761383', '0:01:09.294716')]</t>
+          <t>('0:01:04.300000', '0:01:05.720000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_53</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G', 'A:min7', 'D:7']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb', 'F:min7', 'Bb:7']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:40.450000', '0:00:47.850000')]</t>
+          <t>('0:01:05.810340', '0:01:11.679931')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:08.350000', '0:00:14.240000')]</t>
+          <t>('0:00:01.150000', '0:00:05.734000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-53#t=40.45']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=8.35']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:03.884104', '0:00:26.140430')]</t>
+          <t>('0:00:43.320000', '0:00:45.080000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:02:03.220000', '0:02:07.180000')]</t>
+          <t>('0:00:36.400000', '0:00:41.700000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=43.32</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=36.4</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_27</t>
+          <t>jaah_56</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_59</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D', 'E:min7', 'A:7', 'D']]</t>
+          <t>['Ab', 'F:7', 'Bb:min7', 'Eb:7']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Bb', 'C:min7', 'F:7', 'Bb']]</t>
+          <t>['F/5', 'D:7', 'G:min7', 'C:7']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:06.700000', '0:00:16.050000')]</t>
+          <t>('0:00:15.380000', '0:00:17.560000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:00.370000', '0:00:02.670000')]</t>
+          <t>('0:00:19.400000', '0:00:22.100000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=6.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=15.38</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-59#t=0.37']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=19.4</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['A', 'D', 'A/3']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:02:18.800000', '0:02:24.460000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:47.580000', '0:00:50.040000')]</t>
+          <t>('0:00:13.527000', '0:00:17.058000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>isophonics_251</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:7', 'G#:maj']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab:7', 'Db']]</t>
+          <t>['C:maj', 'F:maj', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:20.480000', '0:01:39.360000')]</t>
+          <t>('0:00:07.525011', '0:00:12.935260')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:31.460000', '0:01:37.740000')]</t>
+          <t>('0:01:09.860000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=80.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=91.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_33</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G/3']]</t>
+          <t>['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:02:10.528000', '0:02:11.689000')]</t>
+          <t>('0:00:41.780000', '0:00:50.420000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:13.723015', '0:00:16.393310')]</t>
+          <t>('0:00:11.300000', '0:00:43.660000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=130.528']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=41.78</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-33#t=13.723015']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=11.3</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['D:7', 'G', 'C:7', 'G']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab', 'Eb']]</t>
+          <t>['G:7', 'C', 'F:7', 'C']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:01.014823', '0:00:12.241493')]</t>
+          <t>('0:00:14.390000', '0:00:31.310000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:02:16.070000', '0:02:21.510000')]</t>
+          <t>('0:00:04.100000', '0:00:09.230000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=14.39</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=4.1</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:dim7', 'Ab', 'F:7', 'Bb:7', 'Eb:7']]</t>
+          <t>['E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:dim7', 'Db/5', 'Bb:7', 'Eb:7', 'Ab:7']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:52.640000', '0:01:55.310000')]</t>
+          <t>('0:00:03.884104', '0:00:26.140430')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:02:22.440000', '0:02:26.900000')]</t>
+          <t>('0:02:18.020000', '0:02:23.320000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=112.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=142.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_81</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B:dim7', 'F/5', 'D:7', 'G:min7']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:dim7', 'Ab', 'F:7', 'Bb:min7']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:08.560000', '0:00:12.130000')]</t>
+          <t>('0:00:00.780000', '0:00:24.040000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:15.640000', '0:00:19.160000')]</t>
+          <t>('0:01:28.583470', '0:01:38.974002')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-81#t=8.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=0.78</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=15.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=88.58347</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:33', '0:00:48.220000')]</t>
+          <t>('0:00:21.680000', '0:00:32.360000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
+          <t>('0:00:48.170328', '0:00:55.589104')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=33.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=21.68</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=75.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=48.170328</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_173</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A', 'F#:min', 'B:min']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:07.960000', '0:00:15.560000')]</t>
+          <t>('0:00:58.080000', '0:01:05.660000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:17.670317', '0:00:31.045011')]</t>
+          <t>('0:01:05.810340', '0:01:11.679931')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=7.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-173#t=17.670317']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C/5']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:12.094553', '0:00:16.853782')]</t>
+          <t>('0:04:12.620000', '0:04:19.880000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:45.480000', '0:00:48')]</t>
+          <t>('0:03:56.780000', '0:04:09.140000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=12.094553']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=252.62</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=45.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=236.78</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:16.840000', '0:00:19.460000')]</t>
+          <t>('0:01:07.760000', '0:01:17.500000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:16.200000', '0:00:18.460000')]</t>
+          <t>('0:00:25.220000', '0:00:27.170000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=67.76</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=16.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
